--- a/ArduinoLFO OutputBoard テスト表.xlsx
+++ b/ArduinoLFO OutputBoard テスト表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\ArduinoLFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="138">
   <si>
     <t>GND</t>
     <phoneticPr fontId="2"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2018.03.17</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JP4-1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -77,10 +73,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SL1-1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JP4-2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -197,10 +189,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>JP8-2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IC2-4</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -217,10 +205,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>#1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>#2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -417,10 +401,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>#1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>LED2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -458,6 +438,142 @@
   </si>
   <si>
     <t>R7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JP3-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+3.3V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+5V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;47uF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;47uF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lighten</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>51.0uF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>49.5uF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018.03.19 #1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018.03.19 #1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0mV</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5.027V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5.026V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D1-A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+3.3V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.284V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.284V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018.03.19</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL1-3</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -465,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +614,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -521,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,6 +660,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,10 +951,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -839,7 +970,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -847,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -855,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -863,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -892,10 +1023,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -903,15 +1034,17 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -919,13 +1052,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -933,27 +1069,33 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -961,13 +1103,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -975,13 +1120,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -989,301 +1137,364 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
       <c r="D25" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E32" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E33" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E34" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E35" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E36" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -1291,83 +1502,101 @@
       <c r="D37" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E37" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E38" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E39" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E40" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E41" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E42" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -1375,13 +1604,16 @@
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E43" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -1389,41 +1621,50 @@
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E44" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E45" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E46" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -1431,27 +1672,33 @@
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E47" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>39</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E48" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>40</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -1459,13 +1706,16 @@
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E49" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -1473,69 +1723,84 @@
       <c r="D50" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E50" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E51" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E52" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E53" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E54" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>46</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -1543,27 +1808,33 @@
       <c r="D55" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E55" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E56" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -1571,352 +1842,488 @@
       <c r="D57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E57" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E58" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" t="s">
         <v>85</v>
       </c>
-      <c r="C59" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E59" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E61" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>55</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="A65" s="3">
+        <v>56</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3">
+        <v>57</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>58</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>3</v>
-      </c>
-      <c r="B69" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>4</v>
-      </c>
-      <c r="B70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>36</v>
+      <c r="E70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
-      </c>
-      <c r="D71" t="s">
-        <v>105</v>
+        <v>86</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>36</v>
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="E73" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>36</v>
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
-      <c r="D76" t="s">
-        <v>105</v>
+      <c r="D76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>36</v>
+        <v>132</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
       </c>
-      <c r="D78" t="s">
-        <v>105</v>
+      <c r="D78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>36</v>
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="E79" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84">
         <v>14</v>
       </c>
-      <c r="B80" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81">
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85">
         <v>15</v>
       </c>
-      <c r="B81" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82">
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>16</v>
       </c>
-      <c r="B82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="1"/>
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ArduinoLFO OutputBoard テスト表.xlsx
+++ b/ArduinoLFO OutputBoard テスト表.xlsx
@@ -953,9 +953,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
